--- a/JupyterNotebooks/AveragedIntensites/SA-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/SA-HW25.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="SA-HW25.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="SA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1075,7 +1075,7 @@
         <v>0.9935841286194035</v>
       </c>
       <c r="F13">
-        <v>0.9938684977613512</v>
+        <v>0.9938684977613513</v>
       </c>
       <c r="G13">
         <v>0.9951011847292845</v>
@@ -1105,7 +1105,7 @@
         <v>0.9943232781813639</v>
       </c>
       <c r="P13">
-        <v>0.9942635674110871</v>
+        <v>0.9942635674110872</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1206,6 +1206,56 @@
       </c>
       <c r="P15">
         <v>0.9967530292471436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.052557562715659</v>
+      </c>
+      <c r="D16">
+        <v>0.9131717376341408</v>
+      </c>
+      <c r="E16">
+        <v>1.016609016762428</v>
+      </c>
+      <c r="F16">
+        <v>0.9761360620500866</v>
+      </c>
+      <c r="G16">
+        <v>1.052557562715659</v>
+      </c>
+      <c r="H16">
+        <v>0.9131717376341408</v>
+      </c>
+      <c r="I16">
+        <v>1.021830898894408</v>
+      </c>
+      <c r="J16">
+        <v>0.9779807578827066</v>
+      </c>
+      <c r="K16">
+        <v>1.016050029596795</v>
+      </c>
+      <c r="L16">
+        <v>0.9422283095875491</v>
+      </c>
+      <c r="M16">
+        <v>1.052557562715659</v>
+      </c>
+      <c r="N16">
+        <v>0.9648903771982843</v>
+      </c>
+      <c r="O16">
+        <v>0.9896185947905786</v>
+      </c>
+      <c r="P16">
+        <v>0.9895705468904716</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/SA-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/SA-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.052557562715659</v>

--- a/JupyterNotebooks/AveragedIntensites/SA-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/SA-HW25.xlsx
@@ -1078,7 +1078,7 @@
         <v>0.9935841286194035</v>
       </c>
       <c r="F13">
-        <v>0.9938684977613513</v>
+        <v>0.9938684977613512</v>
       </c>
       <c r="G13">
         <v>0.9951011847292845</v>
@@ -1108,7 +1108,7 @@
         <v>0.9943232781813639</v>
       </c>
       <c r="P13">
-        <v>0.9942635674110872</v>
+        <v>0.9942635674110871</v>
       </c>
     </row>
     <row r="14" spans="1:16">

--- a/JupyterNotebooks/AveragedIntensites/SA-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/SA-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.100151999999998</v>
+        <v>1.052557562715659</v>
       </c>
       <c r="D10">
-        <v>0.7253679999999993</v>
+        <v>0.9131717376341408</v>
       </c>
       <c r="E10">
-        <v>1.098908000000001</v>
+        <v>1.016609016762428</v>
       </c>
       <c r="F10">
-        <v>0.9362320000000014</v>
+        <v>0.9761360620500866</v>
       </c>
       <c r="G10">
-        <v>1.100151999999998</v>
+        <v>1.052557562715659</v>
       </c>
       <c r="H10">
-        <v>0.7253679999999993</v>
+        <v>0.9131717376341408</v>
       </c>
       <c r="I10">
-        <v>1.090008</v>
+        <v>1.021830898894408</v>
       </c>
       <c r="J10">
-        <v>0.9703680000000003</v>
+        <v>0.9779807578827066</v>
       </c>
       <c r="K10">
-        <v>1.040675999999999</v>
+        <v>1.016050029596795</v>
       </c>
       <c r="L10">
-        <v>0.8387119999999988</v>
+        <v>0.9422283095875491</v>
       </c>
       <c r="M10">
-        <v>1.100151999999998</v>
+        <v>1.052557562715659</v>
       </c>
       <c r="N10">
-        <v>0.9121380000000003</v>
+        <v>0.9648903771982843</v>
       </c>
       <c r="O10">
-        <v>0.9651649999999998</v>
+        <v>0.9896185947905786</v>
       </c>
       <c r="P10">
-        <v>0.9750529999999997</v>
+        <v>0.9895705468904716</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.21</v>
+        <v>1.093757134833485</v>
       </c>
       <c r="D11">
-        <v>0.63</v>
+        <v>0.7690787652649679</v>
       </c>
       <c r="E11">
-        <v>1.1</v>
+        <v>1.075423798756712</v>
       </c>
       <c r="F11">
-        <v>0.9102750000000007</v>
+        <v>0.9475604449930143</v>
       </c>
       <c r="G11">
-        <v>1.21</v>
+        <v>1.093757134833485</v>
       </c>
       <c r="H11">
-        <v>0.63</v>
+        <v>0.7690787652649679</v>
       </c>
       <c r="I11">
-        <v>1.12</v>
+        <v>1.076767902805759</v>
       </c>
       <c r="J11">
-        <v>0.9399999999999999</v>
+        <v>0.9658990873692955</v>
       </c>
       <c r="K11">
-        <v>1.08</v>
+        <v>1.033958472698875</v>
       </c>
       <c r="L11">
-        <v>0.78</v>
+        <v>0.8541796177726954</v>
       </c>
       <c r="M11">
-        <v>1.21</v>
+        <v>1.093757134833485</v>
       </c>
       <c r="N11">
-        <v>0.865</v>
+        <v>0.9222512820108399</v>
       </c>
       <c r="O11">
-        <v>0.9625687500000002</v>
+        <v>0.9714550359620447</v>
       </c>
       <c r="P11">
-        <v>0.9712843750000001</v>
+        <v>0.9770781530618504</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.119077094809598</v>
+        <v>1.092871152488568</v>
       </c>
       <c r="D12">
-        <v>0.7819791078400038</v>
+        <v>0.7698190381924068</v>
       </c>
       <c r="E12">
-        <v>1.056132899635201</v>
+        <v>1.075428130190631</v>
       </c>
       <c r="F12">
-        <v>0.9462341981184003</v>
+        <v>0.9477560400131443</v>
       </c>
       <c r="G12">
-        <v>1.119077094809598</v>
+        <v>1.092871152488568</v>
       </c>
       <c r="H12">
-        <v>0.7819791078400038</v>
+        <v>0.7698190381924068</v>
       </c>
       <c r="I12">
-        <v>1.067294963097598</v>
+        <v>1.076521477474784</v>
       </c>
       <c r="J12">
-        <v>0.9620560025599991</v>
+        <v>0.966179140626469</v>
       </c>
       <c r="K12">
-        <v>1.0443404539904</v>
+        <v>1.033653357460573</v>
       </c>
       <c r="L12">
-        <v>0.8696528343040012</v>
+        <v>0.8546751017856902</v>
       </c>
       <c r="M12">
-        <v>1.119055808716799</v>
+        <v>1.092871152488568</v>
       </c>
       <c r="N12">
-        <v>0.9190560037376025</v>
+        <v>0.9226235841915191</v>
       </c>
       <c r="O12">
-        <v>0.9758558251008009</v>
+        <v>0.9714685902211877</v>
       </c>
       <c r="P12">
-        <v>0.9808459442944003</v>
+        <v>0.9771129297790334</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9951011847292845</v>
+        <v>1.093451751464794</v>
       </c>
       <c r="D13">
-        <v>0.9947393016154165</v>
+        <v>0.7692033366610314</v>
       </c>
       <c r="E13">
-        <v>0.9935841286194035</v>
+        <v>1.075493572150702</v>
       </c>
       <c r="F13">
-        <v>0.9938684977613512</v>
+        <v>0.9476166979082544</v>
       </c>
       <c r="G13">
-        <v>0.9951011847292845</v>
+        <v>1.093451751464794</v>
       </c>
       <c r="H13">
-        <v>0.9947393016154165</v>
+        <v>0.7692033366610314</v>
       </c>
       <c r="I13">
-        <v>0.9941706067261273</v>
+        <v>1.076744749783421</v>
       </c>
       <c r="J13">
-        <v>0.994465363594897</v>
+        <v>0.9659808390578065</v>
       </c>
       <c r="K13">
-        <v>0.9946576667980737</v>
+        <v>1.033847023913777</v>
       </c>
       <c r="L13">
-        <v>0.9935217894441439</v>
+        <v>0.8542602737233127</v>
       </c>
       <c r="M13">
-        <v>0.9950688675033497</v>
+        <v>1.093451751464794</v>
       </c>
       <c r="N13">
-        <v>0.99416171511741</v>
+        <v>0.9223484544058669</v>
       </c>
       <c r="O13">
-        <v>0.9943232781813639</v>
+        <v>0.9714413395461955</v>
       </c>
       <c r="P13">
-        <v>0.9942635674110871</v>
+        <v>0.9770747805828874</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9829541271555897</v>
+        <v>1.100151999999998</v>
       </c>
       <c r="D14">
-        <v>1.004181826793091</v>
+        <v>0.7253679999999993</v>
       </c>
       <c r="E14">
-        <v>0.9953136473639042</v>
+        <v>1.098908000000001</v>
       </c>
       <c r="F14">
-        <v>0.9961190194500269</v>
+        <v>0.9362320000000014</v>
       </c>
       <c r="G14">
-        <v>0.9829541271555897</v>
+        <v>1.100151999999998</v>
       </c>
       <c r="H14">
-        <v>1.004181826793091</v>
+        <v>0.7253679999999993</v>
       </c>
       <c r="I14">
-        <v>0.9900742592822039</v>
+        <v>1.090008</v>
       </c>
       <c r="J14">
-        <v>0.999721858350455</v>
+        <v>0.9703680000000003</v>
       </c>
       <c r="K14">
-        <v>0.9919769520598969</v>
+        <v>1.040675999999999</v>
       </c>
       <c r="L14">
-        <v>0.9999431201925609</v>
+        <v>0.8387119999999988</v>
       </c>
       <c r="M14">
-        <v>0.9829541271555897</v>
+        <v>1.100151999999998</v>
       </c>
       <c r="N14">
-        <v>0.9997477370784976</v>
+        <v>0.9121380000000003</v>
       </c>
       <c r="O14">
-        <v>0.994642155190653</v>
+        <v>0.9651649999999998</v>
       </c>
       <c r="P14">
-        <v>0.995035601330966</v>
+        <v>0.9750529999999997</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9675798280753779</v>
+        <v>1.21</v>
       </c>
       <c r="D15">
-        <v>1.031465805136112</v>
+        <v>0.63</v>
       </c>
       <c r="E15">
-        <v>0.9861424373139468</v>
+        <v>1.1</v>
       </c>
       <c r="F15">
-        <v>1.002689374369926</v>
+        <v>0.9102750000000007</v>
       </c>
       <c r="G15">
-        <v>0.9675798280753779</v>
+        <v>1.21</v>
       </c>
       <c r="H15">
-        <v>1.031465805136112</v>
+        <v>0.63</v>
       </c>
       <c r="I15">
-        <v>0.9797084497431823</v>
+        <v>1.12</v>
       </c>
       <c r="J15">
-        <v>1.001679142282221</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="K15">
-        <v>0.9854909133940898</v>
+        <v>1.08</v>
       </c>
       <c r="L15">
-        <v>1.019268283662292</v>
+        <v>0.78</v>
       </c>
       <c r="M15">
-        <v>0.9675324373253681</v>
+        <v>1.21</v>
       </c>
       <c r="N15">
-        <v>1.008804121225029</v>
+        <v>0.865</v>
       </c>
       <c r="O15">
-        <v>0.9969693612238407</v>
+        <v>0.9625687500000002</v>
       </c>
       <c r="P15">
-        <v>0.9967530292471436</v>
+        <v>0.9712843750000001</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.052557562715659</v>
+        <v>1.119077094809598</v>
       </c>
       <c r="D16">
-        <v>0.9131717376341408</v>
+        <v>0.7819791078400038</v>
       </c>
       <c r="E16">
-        <v>1.016609016762428</v>
+        <v>1.056132899635201</v>
       </c>
       <c r="F16">
-        <v>0.9761360620500866</v>
+        <v>0.9462341981184003</v>
       </c>
       <c r="G16">
-        <v>1.052557562715659</v>
+        <v>1.119077094809598</v>
       </c>
       <c r="H16">
-        <v>0.9131717376341408</v>
+        <v>0.7819791078400038</v>
       </c>
       <c r="I16">
-        <v>1.021830898894408</v>
+        <v>1.067294963097598</v>
       </c>
       <c r="J16">
-        <v>0.9779807578827066</v>
+        <v>0.9620560025599991</v>
       </c>
       <c r="K16">
-        <v>1.016050029596795</v>
+        <v>1.0443404539904</v>
       </c>
       <c r="L16">
-        <v>0.9422283095875491</v>
+        <v>0.8696528343040012</v>
       </c>
       <c r="M16">
-        <v>1.052557562715659</v>
+        <v>1.119055808716799</v>
       </c>
       <c r="N16">
-        <v>0.9648903771982843</v>
+        <v>0.9190560037376025</v>
       </c>
       <c r="O16">
-        <v>0.9896185947905786</v>
+        <v>0.9758558251008009</v>
       </c>
       <c r="P16">
-        <v>0.9895705468904716</v>
+        <v>0.9808459442944003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9951011847292845</v>
+      </c>
+      <c r="D17">
+        <v>0.9947393016154165</v>
+      </c>
+      <c r="E17">
+        <v>0.9935841286194035</v>
+      </c>
+      <c r="F17">
+        <v>0.9938684977613513</v>
+      </c>
+      <c r="G17">
+        <v>0.9951011847292845</v>
+      </c>
+      <c r="H17">
+        <v>0.9947393016154165</v>
+      </c>
+      <c r="I17">
+        <v>0.9941706067261273</v>
+      </c>
+      <c r="J17">
+        <v>0.994465363594897</v>
+      </c>
+      <c r="K17">
+        <v>0.9946576667980737</v>
+      </c>
+      <c r="L17">
+        <v>0.9935217894441439</v>
+      </c>
+      <c r="M17">
+        <v>0.9950688675033497</v>
+      </c>
+      <c r="N17">
+        <v>0.99416171511741</v>
+      </c>
+      <c r="O17">
+        <v>0.9943232781813639</v>
+      </c>
+      <c r="P17">
+        <v>0.9942635674110872</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.9829541271555897</v>
+      </c>
+      <c r="D18">
+        <v>1.004181826793091</v>
+      </c>
+      <c r="E18">
+        <v>0.9953136473639042</v>
+      </c>
+      <c r="F18">
+        <v>0.9961190194500269</v>
+      </c>
+      <c r="G18">
+        <v>0.9829541271555897</v>
+      </c>
+      <c r="H18">
+        <v>1.004181826793091</v>
+      </c>
+      <c r="I18">
+        <v>0.9900742592822039</v>
+      </c>
+      <c r="J18">
+        <v>0.999721858350455</v>
+      </c>
+      <c r="K18">
+        <v>0.9919769520598969</v>
+      </c>
+      <c r="L18">
+        <v>0.9999431201925609</v>
+      </c>
+      <c r="M18">
+        <v>0.9829541271555897</v>
+      </c>
+      <c r="N18">
+        <v>0.9997477370784976</v>
+      </c>
+      <c r="O18">
+        <v>0.994642155190653</v>
+      </c>
+      <c r="P18">
+        <v>0.995035601330966</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9675798280753779</v>
+      </c>
+      <c r="D19">
+        <v>1.031465805136112</v>
+      </c>
+      <c r="E19">
+        <v>0.9861424373139468</v>
+      </c>
+      <c r="F19">
+        <v>1.002689374369926</v>
+      </c>
+      <c r="G19">
+        <v>0.9675798280753779</v>
+      </c>
+      <c r="H19">
+        <v>1.031465805136112</v>
+      </c>
+      <c r="I19">
+        <v>0.9797084497431823</v>
+      </c>
+      <c r="J19">
+        <v>1.001679142282221</v>
+      </c>
+      <c r="K19">
+        <v>0.9854909133940898</v>
+      </c>
+      <c r="L19">
+        <v>1.019268283662292</v>
+      </c>
+      <c r="M19">
+        <v>0.9675324373253681</v>
+      </c>
+      <c r="N19">
+        <v>1.008804121225029</v>
+      </c>
+      <c r="O19">
+        <v>0.9969693612238407</v>
+      </c>
+      <c r="P19">
+        <v>0.9967530292471436</v>
       </c>
     </row>
   </sheetData>
